--- a/static/downloadData/outputX.xlsx
+++ b/static/downloadData/outputX.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,6 +379,9 @@
       <c r="D1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -386,17 +389,22 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Company</t>
+          <t xml:space="preserve"> Name</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Founder</t>
+          <t xml:space="preserve"> Email</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Year</t>
+          <t xml:space="preserve"> Age</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Status</t>
         </is>
       </c>
     </row>
@@ -406,17 +414,22 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Microsoft</t>
+          <t xml:space="preserve"> Leanne Graham</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bill Gates</t>
+          <t xml:space="preserve"> Sincere@april.biz</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1975</t>
+          <t xml:space="preserve"> 28</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Active</t>
         </is>
       </c>
     </row>
@@ -426,17 +439,22 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Amazon</t>
+          <t xml:space="preserve"> Ervin Howell</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jeff Bezos</t>
+          <t xml:space="preserve"> Shanna@melissa.tv</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1994</t>
+          <t xml:space="preserve"> 35</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Active</t>
         </is>
       </c>
     </row>
@@ -446,17 +464,172 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Facebook</t>
+          <t xml:space="preserve"> Clementine Bauch</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mark Zuckerberg</t>
+          <t xml:space="preserve"> Nathan@yesenia.net</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2004</t>
+          <t xml:space="preserve"> 33</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Inactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Patricia Lebsack</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Julianne@kory.org</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kamren</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hettinger@annie.ca</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 42</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dennis Schulist</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dach@jasper.info</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 34</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Inactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kurtis Weissnat</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hoeger@billy.biz</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 44</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Maxime Nienow</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sherwood@rosamond.me</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 26</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Glenna Reichert</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> McDermott@dana.io</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Inactive</t>
         </is>
       </c>
     </row>
